--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Apln-Aplnr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Apln-Aplnr.xlsx
@@ -528,16 +528,16 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>54.98117966666666</v>
+        <v>1.411943666666667</v>
       </c>
       <c r="H2">
-        <v>164.943539</v>
+        <v>4.235831</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>55.70420466666667</v>
+        <v>18.28424166666667</v>
       </c>
       <c r="N2">
-        <v>167.112614</v>
+        <v>54.85272500000001</v>
       </c>
       <c r="O2">
-        <v>0.9846028980573801</v>
+        <v>0.9545246501532072</v>
       </c>
       <c r="P2">
-        <v>0.9846028980573802</v>
+        <v>0.9545246501532071</v>
       </c>
       <c r="Q2">
-        <v>3062.682884966772</v>
+        <v>25.81631922105278</v>
       </c>
       <c r="R2">
-        <v>27564.14596470094</v>
+        <v>232.346872989475</v>
       </c>
       <c r="S2">
-        <v>0.9846028980573801</v>
+        <v>0.9545246501532072</v>
       </c>
       <c r="T2">
-        <v>0.9846028980573802</v>
+        <v>0.9545246501532071</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,16 +590,16 @@
         <v>23</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>54.98117966666666</v>
+        <v>1.411943666666667</v>
       </c>
       <c r="H3">
-        <v>164.943539</v>
+        <v>4.235831</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -620,22 +620,22 @@
         <v>1.243239</v>
       </c>
       <c r="O3">
-        <v>0.007324980999806269</v>
+        <v>0.02163433578790886</v>
       </c>
       <c r="P3">
-        <v>0.00732498099980627</v>
+        <v>0.02163433578790886</v>
       </c>
       <c r="Q3">
-        <v>22.78491560920233</v>
+        <v>0.5851278107343333</v>
       </c>
       <c r="R3">
-        <v>205.064240482821</v>
+        <v>5.266150296609</v>
       </c>
       <c r="S3">
-        <v>0.007324980999806269</v>
+        <v>0.02163433578790886</v>
       </c>
       <c r="T3">
-        <v>0.00732498099980627</v>
+        <v>0.02163433578790886</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,16 +652,16 @@
         <v>24</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>54.98117966666666</v>
+        <v>1.411943666666667</v>
       </c>
       <c r="H4">
-        <v>164.943539</v>
+        <v>4.235831</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -682,22 +682,22 @@
         <v>1.370048</v>
       </c>
       <c r="O4">
-        <v>0.008072120942813555</v>
+        <v>0.02384101405888406</v>
       </c>
       <c r="P4">
-        <v>0.008072120942813555</v>
+        <v>0.02384101405888406</v>
       </c>
       <c r="Q4">
-        <v>25.10895174665245</v>
+        <v>0.6448101988764445</v>
       </c>
       <c r="R4">
-        <v>225.980565719872</v>
+        <v>5.803291789888001</v>
       </c>
       <c r="S4">
-        <v>0.008072120942813555</v>
+        <v>0.02384101405888406</v>
       </c>
       <c r="T4">
-        <v>0.008072120942813555</v>
+        <v>0.02384101405888406</v>
       </c>
     </row>
   </sheetData>
